--- a/biology/Botanique/Cierge_du_Pérou/Cierge_du_Pérou.xlsx
+++ b/biology/Botanique/Cierge_du_Pérou/Cierge_du_Pérou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cierge_du_P%C3%A9rou</t>
+          <t>Cierge_du_Pérou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cereus hildmannianus
 Le Cierge du Pérou (Cereus hildmannianus) est une espèce de cactus colonnaire natif d'Argentine et répandu en Amérique du Sud.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cierge_du_P%C3%A9rou</t>
+          <t>Cierge_du_Pérou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cactus colonnaire peut atteindre 15 m de hauteur.
 Ses aréoles sont rondes, marron et séparées l'une l'autre de 2 cm. Les épines sont rigides et mesurent entre 0,5 à 1 cm. Les aréoles en haut de la plante ont un plus grand nombre d'épines plus longues.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cierge_du_P%C3%A9rou</t>
+          <t>Cierge_du_Pérou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il faut arroser abondamment au cours de la période de croissance, et très peu au cours de la période de repos. L'espèce peut tolérer un certain froid, même de quelques degrés au-dessous de zéro, si le sol est sec. Les jeunes plantes ont besoin d'ombre, alors que les adultes doivent être en plein soleil.
 Se multiplie par graines ou boutures. La fructification intervient à partir de la 3e année en climat favorable.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cierge_du_P%C3%A9rou</t>
+          <t>Cierge_du_Pérou</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante ayant un faible besoin en eau, la production de fruit alimentaires est étudiée dans les pays au climat favorable. La pulpe du fruit est comestible, peu savoureuse mais d'une texture intéressante.
 </t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cierge_du_P%C3%A9rou</t>
+          <t>Cierge_du_Pérou</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,8 +630,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Croyance
-D'après Blanche Mertz, ancienne directrice du Centre de géobiologie de Chardonne en Suisse, le « Cierge du Pérou » aurait la propriété d’absorber les radiations électromagnétiques parasites des écrans cathodiques. Un article du journal en ligne Rue89 a abordé cette question et a pu déterminer que cette affirmation est sans fondement[1].
+          <t>Croyance</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Blanche Mertz, ancienne directrice du Centre de géobiologie de Chardonne en Suisse, le « Cierge du Pérou » aurait la propriété d’absorber les radiations électromagnétiques parasites des écrans cathodiques. Un article du journal en ligne Rue89 a abordé cette question et a pu déterminer que cette affirmation est sans fondement.
 </t>
         </is>
       </c>
@@ -624,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cierge_du_P%C3%A9rou</t>
+          <t>Cierge_du_Pérou</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +665,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cereus repandus Britton &amp; Rose 
 Cereus uruguayanus R.Kiesling 1982
